--- a/Resources/Read_Write.xlsx
+++ b/Resources/Read_Write.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView activeTab="2" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="Read" sheetId="1" r:id="rId1"/>
-    <sheet name="Write" sheetId="2" r:id="rId2"/>
-    <sheet name="Scenarios" sheetId="3" r:id="rId3"/>
+    <sheet name="Read" r:id="rId1" sheetId="1"/>
+    <sheet name="Write" r:id="rId2" sheetId="2"/>
+    <sheet name="Scenarios" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Reading</t>
   </si>
   <si>
-    <t>Sydney</t>
-  </si>
-  <si>
     <t>Pune</t>
   </si>
   <si>
@@ -112,12 +109,19 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,18 +164,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -185,10 +189,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -346,7 +350,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -355,13 +359,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -371,7 +375,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -380,7 +384,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -389,7 +393,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -399,12 +403,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -435,7 +439,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -454,7 +458,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -466,8 +470,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C3"/>
@@ -480,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -491,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -502,10 +506,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -513,20 +517,20 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -534,7 +538,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -542,10 +546,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -553,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -564,92 +568,92 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resources/Read_Write.xlsx
+++ b/Resources/Read_Write.xlsx
@@ -2,54 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Read" r:id="rId1" sheetId="1"/>
-    <sheet name="Write" r:id="rId2" sheetId="2"/>
-    <sheet name="Scenarios" r:id="rId3" sheetId="3"/>
+    <sheet name="Scenarios" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Curran</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>Course</t>
-  </si>
-  <si>
-    <t>SDET</t>
-  </si>
-  <si>
-    <t>DEVOPS</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Run</t>
   </si>
@@ -93,15 +58,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>Frankfurt</t>
-  </si>
-  <si>
     <t>S.No</t>
   </si>
   <si>
@@ -109,9 +65,6 @@
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>Fail</t>
@@ -121,7 +74,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,18 +116,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -189,10 +141,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -350,7 +302,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -359,13 +311,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -375,7 +327,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -384,7 +336,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -393,7 +345,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -403,12 +355,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -439,7 +391,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -458,7 +410,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -470,118 +422,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
@@ -589,71 +431,71 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resources/Read_Write.xlsx
+++ b/Resources/Read_Write.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="Scenarios" sheetId="3" r:id="rId1"/>
+    <sheet name="Scenarios" r:id="rId1" sheetId="3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Run</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>NA</t>
@@ -74,6 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,18 +114,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -141,10 +139,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -302,7 +300,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -311,13 +309,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -327,7 +325,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -336,7 +334,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -345,7 +343,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -355,12 +353,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -391,7 +389,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -410,7 +408,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -422,21 +420,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -456,7 +454,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -471,15 +469,15 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -491,11 +489,11 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>